--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>QUARTZ 16mhz</t>
   </si>
@@ -122,10 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +451,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -456,23 +459,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -480,31 +483,31 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -512,7 +515,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -520,31 +523,31 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="2">
+        <v>470</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>470</v>
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -552,7 +555,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -560,7 +563,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -568,7 +571,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -576,33 +579,25 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>220</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>220</v>
+      <c r="A22" t="s">
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
         <v>3</v>
       </c>
     </row>
